--- a/Data_file/import_invoice_ARX.xlsx
+++ b/Data_file/import_invoice_ARX.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$B$1:$B$2280</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$D$1:$D$2625</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="100">
   <si>
     <t>invoice_date</t>
   </si>
@@ -240,9 +240,6 @@
     <t>CRP2400405</t>
   </si>
   <si>
-    <t xml:space="preserve"> CSC COMPLEX CENTER CO.,LTD.</t>
-  </si>
-  <si>
     <t>SOUVANNY  HOMECENTER  PUBLIC  COMPANY</t>
   </si>
   <si>
@@ -351,6 +348,9 @@
   </si>
   <si>
     <t>ยอด Rebate เดือน สิงหาคม 2567</t>
+  </si>
+  <si>
+    <t>account_code</t>
   </si>
 </sst>
 </file>
@@ -1704,21 +1704,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2625"/>
+  <dimension ref="A1:J2625"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="16.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.88671875" style="1" customWidth="1"/>
     <col min="8" max="10" width="16.33203125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" customHeight="1">
+    <row r="1" spans="1:10" ht="20.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1746,8 +1748,11 @@
       <c r="I1" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="35.700000000000003" customHeight="1">
+      <c r="J1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="35.700000000000003" customHeight="1">
       <c r="A2" s="3">
         <v>42521</v>
       </c>
@@ -1756,7 +1761,7 @@
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="5" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>7</v>
@@ -1766,13 +1771,16 @@
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="35.700000000000003" customHeight="1">
+      <c r="J2" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="35.700000000000003" customHeight="1">
       <c r="A3" s="3">
         <v>42623</v>
       </c>
@@ -1781,7 +1789,7 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>7</v>
@@ -1791,13 +1799,16 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="35.700000000000003" customHeight="1">
+      <c r="J3" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="35.700000000000003" customHeight="1">
       <c r="A4" s="3">
         <v>42678</v>
       </c>
@@ -1806,7 +1817,7 @@
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>7</v>
@@ -1816,22 +1827,25 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="35.700000000000003" customHeight="1">
+      <c r="J4" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="35.700000000000003" customHeight="1">
       <c r="A5" s="3">
         <v>42916</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>7</v>
@@ -1841,13 +1855,16 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J5" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="49.65" customHeight="1">
       <c r="A6" s="3">
         <v>43027</v>
       </c>
@@ -1856,7 +1873,7 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>7</v>
@@ -1866,13 +1883,16 @@
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J6" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="49.65" customHeight="1">
       <c r="A7" s="3">
         <v>43019</v>
       </c>
@@ -1891,13 +1911,16 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J7" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="49.65" customHeight="1">
       <c r="A8" s="3">
         <v>42886</v>
       </c>
@@ -1906,7 +1929,7 @@
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>7</v>
@@ -1916,13 +1939,16 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="35.700000000000003" customHeight="1">
+      <c r="J8" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="35.700000000000003" customHeight="1">
       <c r="A9" s="3">
         <v>43136</v>
       </c>
@@ -1941,13 +1967,16 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="35.700000000000003" customHeight="1">
+      <c r="J9" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="35.700000000000003" customHeight="1">
       <c r="A10" s="3">
         <v>43136</v>
       </c>
@@ -1966,13 +1995,16 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="35.700000000000003" customHeight="1">
+      <c r="J10" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="35.700000000000003" customHeight="1">
       <c r="A11" s="3">
         <v>43186</v>
       </c>
@@ -1991,13 +2023,16 @@
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J11" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="49.65" customHeight="1">
       <c r="A12" s="3">
         <v>43263</v>
       </c>
@@ -2016,13 +2051,16 @@
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J12" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="49.65" customHeight="1">
       <c r="A13" s="3">
         <v>43263</v>
       </c>
@@ -2041,13 +2079,16 @@
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J13" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="49.65" customHeight="1">
       <c r="A14" s="3">
         <v>43312</v>
       </c>
@@ -2066,13 +2107,16 @@
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="63.6" customHeight="1">
+      <c r="J14" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="63.6" customHeight="1">
       <c r="A15" s="3">
         <v>43312</v>
       </c>
@@ -2091,13 +2135,16 @@
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J15" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="49.65" customHeight="1">
       <c r="A16" s="3">
         <v>43316</v>
       </c>
@@ -2116,13 +2163,16 @@
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J16" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="49.65" customHeight="1">
       <c r="A17" s="3">
         <v>43320</v>
       </c>
@@ -2141,13 +2191,16 @@
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J17" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="49.65" customHeight="1">
       <c r="A18" s="3">
         <v>43171</v>
       </c>
@@ -2166,13 +2219,16 @@
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="35.700000000000003" customHeight="1">
+      <c r="J18" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="35.700000000000003" customHeight="1">
       <c r="A19" s="3">
         <v>43171</v>
       </c>
@@ -2191,13 +2247,16 @@
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J19" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="49.65" customHeight="1">
       <c r="A20" s="3">
         <v>43181</v>
       </c>
@@ -2206,7 +2265,7 @@
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>7</v>
@@ -2216,13 +2275,16 @@
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J20" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="49.65" customHeight="1">
       <c r="A21" s="3">
         <v>43342</v>
       </c>
@@ -2241,13 +2303,16 @@
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J21" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="49.65" customHeight="1">
       <c r="A22" s="3">
         <v>43482</v>
       </c>
@@ -2266,13 +2331,16 @@
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J22" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="49.65" customHeight="1">
       <c r="A23" s="3">
         <v>43595</v>
       </c>
@@ -2281,7 +2349,7 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>7</v>
@@ -2291,13 +2359,16 @@
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J23" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="49.65" customHeight="1">
       <c r="A24" s="3">
         <v>43669</v>
       </c>
@@ -2306,7 +2377,7 @@
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>7</v>
@@ -2316,13 +2387,16 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J24" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="49.65" customHeight="1">
       <c r="A25" s="3">
         <v>43822</v>
       </c>
@@ -2341,13 +2415,16 @@
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J25" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="49.65" customHeight="1">
       <c r="A26" s="3">
         <v>43950</v>
       </c>
@@ -2366,13 +2443,16 @@
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J26" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="49.65" customHeight="1">
       <c r="A27" s="3">
         <v>44099</v>
       </c>
@@ -2394,8 +2474,11 @@
       <c r="I27" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J27" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="49.65" customHeight="1">
       <c r="A28" s="3">
         <v>44117</v>
       </c>
@@ -2414,13 +2497,16 @@
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J28" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="49.65" customHeight="1">
       <c r="A29" s="3">
         <v>44279</v>
       </c>
@@ -2429,7 +2515,7 @@
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>7</v>
@@ -2439,13 +2525,16 @@
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J29" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="49.65" customHeight="1">
       <c r="A30" s="3">
         <v>44287</v>
       </c>
@@ -2454,7 +2543,7 @@
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>7</v>
@@ -2467,8 +2556,11 @@
       <c r="I30" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J30" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="49.65" customHeight="1">
       <c r="A31" s="3">
         <v>44287</v>
       </c>
@@ -2477,7 +2569,7 @@
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>7</v>
@@ -2490,8 +2582,11 @@
       <c r="I31" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J31" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="49.65" customHeight="1">
       <c r="A32" s="3">
         <v>44376</v>
       </c>
@@ -2510,13 +2605,16 @@
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J32" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="49.65" customHeight="1">
       <c r="A33" s="3">
         <v>44517</v>
       </c>
@@ -2525,7 +2623,7 @@
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>7</v>
@@ -2535,13 +2633,16 @@
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J33" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="49.65" customHeight="1">
       <c r="A34" s="3">
         <v>44525</v>
       </c>
@@ -2550,7 +2651,7 @@
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>7</v>
@@ -2563,8 +2664,11 @@
       <c r="I34" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J34" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="49.65" customHeight="1">
       <c r="A35" s="3">
         <v>44561</v>
       </c>
@@ -2586,8 +2690,11 @@
       <c r="I35" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J35" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="49.65" customHeight="1">
       <c r="A36" s="3">
         <v>44692</v>
       </c>
@@ -2596,7 +2703,7 @@
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>7</v>
@@ -2606,13 +2713,16 @@
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J36" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="49.65" customHeight="1">
       <c r="A37" s="3">
         <v>44692</v>
       </c>
@@ -2621,7 +2731,7 @@
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>7</v>
@@ -2631,13 +2741,16 @@
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J37" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="49.65" customHeight="1">
       <c r="A38" s="3">
         <v>44770</v>
       </c>
@@ -2656,13 +2769,16 @@
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="35.700000000000003" customHeight="1">
+      <c r="J38" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="35.700000000000003" customHeight="1">
       <c r="A39" s="3">
         <v>44886</v>
       </c>
@@ -2671,7 +2787,7 @@
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>7</v>
@@ -2681,13 +2797,16 @@
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="35.700000000000003" customHeight="1">
+      <c r="J39" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="35.700000000000003" customHeight="1">
       <c r="A40" s="3">
         <v>45020</v>
       </c>
@@ -2696,7 +2815,7 @@
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>7</v>
@@ -2709,8 +2828,11 @@
       <c r="I40" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="35.700000000000003" customHeight="1">
+      <c r="J40" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="35.700000000000003" customHeight="1">
       <c r="A41" s="3">
         <v>45155</v>
       </c>
@@ -2732,8 +2854,11 @@
       <c r="I41" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="35.700000000000003" customHeight="1">
+      <c r="J41" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="35.700000000000003" customHeight="1">
       <c r="A42" s="3">
         <v>45291</v>
       </c>
@@ -2742,7 +2867,7 @@
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>7</v>
@@ -2752,13 +2877,16 @@
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J42" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="49.65" customHeight="1">
       <c r="A43" s="3">
         <v>45292</v>
       </c>
@@ -2777,13 +2905,16 @@
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="35.700000000000003" customHeight="1">
+      <c r="J43" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="35.700000000000003" customHeight="1">
       <c r="A44" s="3">
         <v>45310</v>
       </c>
@@ -2805,8 +2936,11 @@
       <c r="I44" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J44" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="49.65" customHeight="1">
       <c r="A45" s="3">
         <v>45560</v>
       </c>
@@ -2825,13 +2959,16 @@
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J45" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="49.65" customHeight="1">
       <c r="A46" s="3">
         <v>45560</v>
       </c>
@@ -2850,13 +2987,16 @@
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J46" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="49.65" customHeight="1">
       <c r="A47" s="3">
         <v>45551</v>
       </c>
@@ -2875,13 +3015,16 @@
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="35.700000000000003" customHeight="1">
+      <c r="J47" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="35.700000000000003" customHeight="1">
       <c r="A48" s="3">
         <v>45625</v>
       </c>
@@ -2890,7 +3033,7 @@
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>7</v>
@@ -2900,13 +3043,16 @@
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J48" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="49.65" customHeight="1">
       <c r="A49" s="3">
         <v>45625</v>
       </c>
@@ -2915,7 +3061,7 @@
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>7</v>
@@ -2925,13 +3071,16 @@
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J49" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="49.65" customHeight="1">
       <c r="A50" s="3">
         <v>45638</v>
       </c>
@@ -2950,13 +3099,16 @@
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I50" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J50" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="49.65" customHeight="1">
       <c r="A51" s="3">
         <v>45638</v>
       </c>
@@ -2975,13 +3127,16 @@
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="49.65" customHeight="1">
+      <c r="J51" s="1">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="49.65" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="11"/>
@@ -2992,7 +3147,7 @@
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
     </row>
-    <row r="53" spans="1:9" ht="49.65" customHeight="1">
+    <row r="53" spans="1:10" ht="49.65" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="11"/>
@@ -3003,7 +3158,7 @@
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
     </row>
-    <row r="54" spans="1:9" ht="49.65" customHeight="1">
+    <row r="54" spans="1:10" ht="49.65" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="11"/>
@@ -3014,7 +3169,7 @@
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
     </row>
-    <row r="55" spans="1:9" ht="49.65" customHeight="1">
+    <row r="55" spans="1:10" ht="49.65" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="11"/>
@@ -3025,7 +3180,7 @@
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
     </row>
-    <row r="56" spans="1:9" ht="49.65" customHeight="1">
+    <row r="56" spans="1:10" ht="49.65" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="11"/>
@@ -3036,7 +3191,7 @@
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
     </row>
-    <row r="57" spans="1:9" ht="49.65" customHeight="1">
+    <row r="57" spans="1:10" ht="49.65" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="11"/>
@@ -3047,7 +3202,7 @@
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
     </row>
-    <row r="58" spans="1:9" ht="35.700000000000003" customHeight="1">
+    <row r="58" spans="1:10" ht="35.700000000000003" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" s="11"/>
@@ -3058,7 +3213,7 @@
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
     </row>
-    <row r="59" spans="1:9" ht="49.65" customHeight="1">
+    <row r="59" spans="1:10" ht="49.65" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="11"/>
@@ -3069,7 +3224,7 @@
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
     </row>
-    <row r="60" spans="1:9" ht="49.65" customHeight="1">
+    <row r="60" spans="1:10" ht="49.65" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="11"/>
@@ -3080,7 +3235,7 @@
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
     </row>
-    <row r="61" spans="1:9" ht="49.65" customHeight="1">
+    <row r="61" spans="1:10" ht="49.65" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="11"/>
@@ -3091,7 +3246,7 @@
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
     </row>
-    <row r="62" spans="1:9" ht="49.65" customHeight="1">
+    <row r="62" spans="1:10" ht="49.65" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="11"/>
@@ -3102,7 +3257,7 @@
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
     </row>
-    <row r="63" spans="1:9" ht="49.65" customHeight="1">
+    <row r="63" spans="1:10" ht="49.65" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="11"/>
@@ -3113,7 +3268,7 @@
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
     </row>
-    <row r="64" spans="1:9" ht="49.65" customHeight="1">
+    <row r="64" spans="1:10" ht="49.65" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="11"/>
@@ -29163,6 +29318,7 @@
       <c r="I2625" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D2625"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
   <headerFooter>
